--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -4,34 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="2355" windowWidth="14250" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" windowHeight="3840" windowWidth="14010" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="bldata" r:id="rId2" sheetId="2"/>
+    <sheet name="ContractData" r:id="rId2" sheetId="3"/>
+    <sheet name="bldata" r:id="rId3" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>ghoshd</t>
   </si>
   <si>
-    <t>molit@123</t>
-  </si>
-  <si>
     <t>Debasish</t>
   </si>
   <si>
     <t>Ghosh</t>
   </si>
   <si>
-    <t>18000004280</t>
-  </si>
-  <si>
     <t>Booking No:</t>
   </si>
   <si>
@@ -41,21 +36,140 @@
     <t>18000005899</t>
   </si>
   <si>
-    <t>TC1800418</t>
-  </si>
-  <si>
-    <t>TC1800419</t>
-  </si>
-  <si>
-    <t>TC1800420</t>
+    <t>molit@1234</t>
+  </si>
+  <si>
+    <t>Contract Type</t>
+  </si>
+  <si>
+    <t>Transport Contract</t>
+  </si>
+  <si>
+    <t>TransportContract_auto</t>
+  </si>
+  <si>
+    <t>Contract Effective Date</t>
+  </si>
+  <si>
+    <t>Contract Expiry Date</t>
+  </si>
+  <si>
+    <t>Contract Load Port</t>
+  </si>
+  <si>
+    <t>SGSINPP</t>
+  </si>
+  <si>
+    <t>Contract Dish port</t>
+  </si>
+  <si>
+    <t>HKHKGPC</t>
+  </si>
+  <si>
+    <t>Cargo Type</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>Make Name</t>
+  </si>
+  <si>
+    <t>Contract Name</t>
+  </si>
+  <si>
+    <t>Main Customer</t>
+  </si>
+  <si>
+    <t>ASHOK</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>MINI TRUCK</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate </t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Prepaid/Collect</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Freight Collection Office</t>
+  </si>
+  <si>
+    <t>MOLSIN</t>
+  </si>
+  <si>
+    <t>Invoice Office</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>TC1800520</t>
+  </si>
+  <si>
+    <t>Booking Doc Entry Office</t>
+  </si>
+  <si>
+    <t>Booking Doc Issue Office</t>
+  </si>
+  <si>
+    <t>Consignee Number</t>
+  </si>
+  <si>
+    <t>Cargo Unit</t>
+  </si>
+  <si>
+    <t>B/L Data</t>
+  </si>
+  <si>
+    <t>Goods Description Text</t>
+  </si>
+  <si>
+    <t>Goods Description for Cargo Details One</t>
+  </si>
+  <si>
+    <t>TC1800530</t>
+  </si>
+  <si>
+    <t>TC1800531</t>
+  </si>
+  <si>
+    <t>TC1800532</t>
+  </si>
+  <si>
+    <t>TC1800534</t>
+  </si>
+  <si>
+    <t>TC1800537</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +181,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,10 +215,18 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -405,7 +535,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,15 +549,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -440,44 +570,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>5117553</v>
+      </c>
+    </row>
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row ht="30" r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>5117553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18000008178</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>5056735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="60" r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="3840" windowWidth="14010" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="3840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="ContractData" r:id="rId2" sheetId="3"/>
-    <sheet name="bldata" r:id="rId3" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ContractData" sheetId="3" r:id="rId2"/>
+    <sheet name="bldata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>ghoshd</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Contact No.</t>
   </si>
   <si>
-    <t>18000005899</t>
-  </si>
-  <si>
     <t>molit@1234</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Payer</t>
   </si>
   <si>
-    <t>TC1800520</t>
-  </si>
-  <si>
     <t>Booking Doc Entry Office</t>
   </si>
   <si>
@@ -147,19 +141,10 @@
     <t>Goods Description for Cargo Details One</t>
   </si>
   <si>
-    <t>TC1800530</t>
-  </si>
-  <si>
-    <t>TC1800531</t>
-  </si>
-  <si>
-    <t>TC1800532</t>
-  </si>
-  <si>
-    <t>TC1800534</t>
-  </si>
-  <si>
-    <t>TC1800537</t>
+    <t>TC1800541</t>
+  </si>
+  <si>
+    <t>18000008434</t>
   </si>
 </sst>
 </file>
@@ -212,28 +197,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -250,10 +235,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -288,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +396,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -420,13 +405,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -436,7 +421,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -445,7 +430,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -454,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -464,12 +449,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -500,7 +485,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -519,7 +504,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -531,17 +516,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,53 +545,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>5117553</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>43214</v>
@@ -616,7 +600,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>43579</v>
@@ -624,55 +608,55 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>2500</v>
@@ -680,64 +664,64 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row ht="30" r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>5117553</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,10 +732,10 @@
         <v>18000008178</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,24 +743,24 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>5056735</v>
@@ -784,27 +768,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row ht="60" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="3840" activeTab="1"/>
+    <workbookView activeTab="2" windowHeight="3840" windowWidth="14010" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ContractData" sheetId="3" r:id="rId2"/>
-    <sheet name="bldata" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="ContractData" r:id="rId2" sheetId="3"/>
+    <sheet name="bldata" r:id="rId3" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
-  <si>
-    <t>ghoshd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="99">
   <si>
     <t>Debasish</t>
   </si>
@@ -33,9 +30,6 @@
     <t>Contact No.</t>
   </si>
   <si>
-    <t>molit@1234</t>
-  </si>
-  <si>
     <t>Contract Type</t>
   </si>
   <si>
@@ -54,97 +48,271 @@
     <t>Contract Load Port</t>
   </si>
   <si>
+    <t>Contract Dish port</t>
+  </si>
+  <si>
+    <t>HKHKGPC</t>
+  </si>
+  <si>
+    <t>Cargo Type</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>Make Name</t>
+  </si>
+  <si>
+    <t>Contract Name</t>
+  </si>
+  <si>
+    <t>Main Customer</t>
+  </si>
+  <si>
+    <t>ASHOK</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>MINI TRUCK</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate </t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Prepaid/Collect</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Freight Collection Office</t>
+  </si>
+  <si>
+    <t>MOLSIN</t>
+  </si>
+  <si>
+    <t>Invoice Office</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Booking Doc Entry Office</t>
+  </si>
+  <si>
+    <t>Booking Doc Issue Office</t>
+  </si>
+  <si>
+    <t>Consignee Number</t>
+  </si>
+  <si>
+    <t>Cargo Unit</t>
+  </si>
+  <si>
+    <t>B/L Data</t>
+  </si>
+  <si>
+    <t>Goods Description Text</t>
+  </si>
+  <si>
+    <t>Goods Description for Cargo Details One</t>
+  </si>
+  <si>
+    <t>autotestadm</t>
+  </si>
+  <si>
+    <t>Charge Code</t>
+  </si>
+  <si>
+    <t>ADH</t>
+  </si>
+  <si>
+    <t>Per Bill</t>
+  </si>
+  <si>
+    <t>molsin</t>
+  </si>
+  <si>
+    <t>Currenecy</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Invoice Offce</t>
+  </si>
+  <si>
+    <t>Payer Code</t>
+  </si>
+  <si>
+    <t>Transaction log</t>
+  </si>
+  <si>
+    <t>BL saved</t>
+  </si>
+  <si>
+    <t>TC1800579</t>
+  </si>
+  <si>
+    <t>Contract No for Upload Contarct</t>
+  </si>
+  <si>
+    <t>Upload file path</t>
+  </si>
+  <si>
+    <t>D:\TC1800579_Rev0.xlsx</t>
+  </si>
+  <si>
+    <t>Multiple Revenue</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Make/Model</t>
+  </si>
+  <si>
+    <t>Rated At</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Exchange Rate Date</t>
+  </si>
+  <si>
+    <t>Local Amount</t>
+  </si>
+  <si>
+    <t>Print On</t>
+  </si>
+  <si>
+    <t>Freight Collect Office</t>
+  </si>
+  <si>
+    <t>Invoiceing Office</t>
+  </si>
+  <si>
+    <t>APS</t>
+  </si>
+  <si>
+    <t>1 - ASHOK - MINI TRUCK</t>
+  </si>
+  <si>
+    <t>Actual measure basis</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>AMF</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>Percentage basis</t>
+  </si>
+  <si>
+    <t>DPO</t>
+  </si>
+  <si>
+    <t>Per Unit basis</t>
+  </si>
+  <si>
+    <t>FTC</t>
+  </si>
+  <si>
+    <t>Actual weight basis</t>
+  </si>
+  <si>
+    <t>Consignee Code</t>
+  </si>
+  <si>
+    <t>PB-Per Bill</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>LOD</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>Select Model</t>
+  </si>
+  <si>
+    <t>HKHKGPC~BRRIOPT</t>
+  </si>
+  <si>
+    <t>2 - BMW - 1   SER IES</t>
+  </si>
+  <si>
+    <t>3 - AUDI - AUDI 200</t>
+  </si>
+  <si>
+    <t>Password@4321</t>
+  </si>
+  <si>
+    <t>Select Vessel</t>
+  </si>
+  <si>
     <t>SGSINPP</t>
   </si>
   <si>
-    <t>Contract Dish port</t>
-  </si>
-  <si>
-    <t>HKHKGPC</t>
-  </si>
-  <si>
-    <t>Cargo Type</t>
-  </si>
-  <si>
-    <t>TRUCK</t>
-  </si>
-  <si>
-    <t>Make Name</t>
-  </si>
-  <si>
-    <t>Contract Name</t>
-  </si>
-  <si>
-    <t>Main Customer</t>
-  </si>
-  <si>
-    <t>ASHOK</t>
-  </si>
-  <si>
-    <t>Model Name</t>
-  </si>
-  <si>
-    <t>MINI TRUCK</t>
-  </si>
-  <si>
-    <t>Basis</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate </t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>Prepaid/Collect</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Freight Collection Office</t>
-  </si>
-  <si>
-    <t>MOLSIN</t>
-  </si>
-  <si>
-    <t>Invoice Office</t>
-  </si>
-  <si>
-    <t>Payer</t>
-  </si>
-  <si>
-    <t>Booking Doc Entry Office</t>
-  </si>
-  <si>
-    <t>Booking Doc Issue Office</t>
-  </si>
-  <si>
-    <t>Consignee Number</t>
-  </si>
-  <si>
-    <t>Cargo Unit</t>
-  </si>
-  <si>
-    <t>B/L Data</t>
-  </si>
-  <si>
-    <t>Goods Description Text</t>
-  </si>
-  <si>
-    <t>Goods Description for Cargo Details One</t>
-  </si>
-  <si>
-    <t>TC1800541</t>
-  </si>
-  <si>
-    <t>18000008434</t>
+    <t>TC1800958</t>
+  </si>
+  <si>
+    <t>SAMADA EDI SEPT18 0060A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18000027537 </t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Received for Shipment</t>
+  </si>
+  <si>
+    <t>18000027590</t>
   </si>
 </sst>
 </file>
@@ -197,28 +365,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,10 +403,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -273,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +564,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -405,13 +573,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -421,7 +589,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -430,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -439,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -449,12 +617,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -485,7 +653,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -504,7 +672,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -516,279 +684,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row ht="30" r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>5117553</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row ht="30" r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>43214</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>40522</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
-        <v>43579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B12">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="30" r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>5117553</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18000027537</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
-        <v>18000008178</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>5056735</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row ht="60" r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>5117553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>5056735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row ht="45" r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>870</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>200</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46">
+        <v>88</v>
+      </c>
+      <c r="F46">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47">
+        <v>4208606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48">
+        <v>110</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48">
+        <v>4208606</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
   <si>
     <t>Debasish</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>18000027590</t>
+  </si>
+  <si>
+    <t>18000027732</t>
+  </si>
+  <si>
+    <t>18000027748</t>
+  </si>
+  <si>
+    <t>18000027753</t>
+  </si>
+  <si>
+    <t>18000027774</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>

--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="3840" windowWidth="14010" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="3840" windowWidth="14010" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="99">
   <si>
     <t>Debasish</t>
   </si>
@@ -288,9 +288,6 @@
     <t>3 - AUDI - AUDI 200</t>
   </si>
   <si>
-    <t>Password@4321</t>
-  </si>
-  <si>
     <t>Select Vessel</t>
   </si>
   <si>
@@ -303,28 +300,19 @@
     <t>SAMADA EDI SEPT18 0060A</t>
   </si>
   <si>
-    <t xml:space="preserve">18000027537 </t>
-  </si>
-  <si>
     <t>Issue Type</t>
   </si>
   <si>
     <t>Received for Shipment</t>
   </si>
   <si>
-    <t>18000027590</t>
-  </si>
-  <si>
-    <t>18000027732</t>
-  </si>
-  <si>
-    <t>18000027748</t>
-  </si>
-  <si>
-    <t>18000027753</t>
-  </si>
-  <si>
     <t>18000027774</t>
+  </si>
+  <si>
+    <t>Password@9876</t>
+  </si>
+  <si>
+    <t>18000027795</t>
   </si>
 </sst>
 </file>
@@ -699,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,6 +718,7 @@
     <hyperlink r:id="rId1" ref="B1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -818,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -964,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -1015,10 +1004,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1108,10 +1097,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
